--- a/REGULAR/HRMO/AGUSTIN, MA LUISA FELLLO.xlsx
+++ b/REGULAR/HRMO/AGUSTIN, MA LUISA FELLLO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\HRMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296D4321-1385-4318-BE1E-D7A79BBEBBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727F655-D78B-4718-B85A-0B3EF8D1371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -1811,7 +1811,7 @@
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="3108" topLeftCell="A365" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="G378" sqref="G378"/>
+      <selection pane="bottomLeft" activeCell="P373" sqref="P373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/HRMO/AGUSTIN, MA LUISA FELLLO.xlsx
+++ b/REGULAR/HRMO/AGUSTIN, MA LUISA FELLLO.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="258">
   <si>
     <t>PERIOD</t>
   </si>
@@ -797,6 +797,22 @@
   </si>
   <si>
     <t>8/18,31/2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+  </si>
+  <si>
+    <t>12/12,15,19,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1509,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K508" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K509" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1822,12 +1838,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K508"/>
+  <dimension ref="A2:K509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3480" topLeftCell="A373" activePane="bottomLeft"/>
+      <pane ySplit="3480" topLeftCell="A374" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
+      <selection pane="bottomLeft" activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +2008,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>135.1566</v>
+        <v>133.9066</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2002,7 +2018,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>153.75</v>
+        <v>157.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -10209,13 +10225,15 @@
         <v>45170</v>
       </c>
       <c r="B388" s="21"/>
-      <c r="C388" s="14"/>
+      <c r="C388" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D388" s="41"/>
       <c r="E388" s="9"/>
       <c r="F388" s="21"/>
-      <c r="G388" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G388" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H388" s="41"/>
       <c r="I388" s="9"/>
@@ -10227,13 +10245,15 @@
         <v>45200</v>
       </c>
       <c r="B389" s="21"/>
-      <c r="C389" s="14"/>
+      <c r="C389" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D389" s="41"/>
       <c r="E389" s="9"/>
       <c r="F389" s="21"/>
-      <c r="G389" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G389" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H389" s="41"/>
       <c r="I389" s="9"/>
@@ -10245,13 +10265,15 @@
         <v>45231</v>
       </c>
       <c r="B390" s="21"/>
-      <c r="C390" s="14"/>
+      <c r="C390" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D390" s="41"/>
       <c r="E390" s="9"/>
       <c r="F390" s="21"/>
-      <c r="G390" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G390" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H390" s="41"/>
       <c r="I390" s="9"/>
@@ -10262,9 +10284,13 @@
       <c r="A391" s="35">
         <v>45261</v>
       </c>
-      <c r="B391" s="21"/>
+      <c r="B391" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="C391" s="14"/>
-      <c r="D391" s="41"/>
+      <c r="D391" s="41">
+        <v>5</v>
+      </c>
       <c r="E391" s="9"/>
       <c r="F391" s="21"/>
       <c r="G391" s="14" t="str">
@@ -10274,11 +10300,15 @@
       <c r="H391" s="41"/>
       <c r="I391" s="9"/>
       <c r="J391" s="12"/>
-      <c r="K391" s="21"/>
+      <c r="K391" s="21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
-      <c r="B392" s="21"/>
+      <c r="B392" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="C392" s="14"/>
       <c r="D392" s="41"/>
       <c r="E392" s="9"/>
@@ -10290,10 +10320,14 @@
       <c r="H392" s="41"/>
       <c r="I392" s="9"/>
       <c r="J392" s="12"/>
-      <c r="K392" s="21"/>
+      <c r="K392" s="33">
+        <v>45281</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="35"/>
+      <c r="A393" s="24" t="s">
+        <v>256</v>
+      </c>
       <c r="B393" s="21"/>
       <c r="C393" s="14"/>
       <c r="D393" s="41"/>
@@ -10309,7 +10343,9 @@
       <c r="K393" s="21"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="35"/>
+      <c r="A394" s="35">
+        <v>45323</v>
+      </c>
       <c r="B394" s="21"/>
       <c r="C394" s="14"/>
       <c r="D394" s="41"/>
@@ -10325,7 +10361,9 @@
       <c r="K394" s="21"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="35"/>
+      <c r="A395" s="35">
+        <v>45352</v>
+      </c>
       <c r="B395" s="21"/>
       <c r="C395" s="14"/>
       <c r="D395" s="41"/>
@@ -10341,7 +10379,9 @@
       <c r="K395" s="21"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="35"/>
+      <c r="A396" s="35">
+        <v>45383</v>
+      </c>
       <c r="B396" s="21"/>
       <c r="C396" s="14"/>
       <c r="D396" s="41"/>
@@ -10357,7 +10397,9 @@
       <c r="K396" s="21"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="35"/>
+      <c r="A397" s="35">
+        <v>45413</v>
+      </c>
       <c r="B397" s="21"/>
       <c r="C397" s="14"/>
       <c r="D397" s="41"/>
@@ -10373,7 +10415,9 @@
       <c r="K397" s="21"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="35"/>
+      <c r="A398" s="35">
+        <v>45444</v>
+      </c>
       <c r="B398" s="21"/>
       <c r="C398" s="14"/>
       <c r="D398" s="41"/>
@@ -10389,7 +10433,9 @@
       <c r="K398" s="21"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="35"/>
+      <c r="A399" s="35">
+        <v>45474</v>
+      </c>
       <c r="B399" s="21"/>
       <c r="C399" s="14"/>
       <c r="D399" s="41"/>
@@ -10405,7 +10451,9 @@
       <c r="K399" s="21"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="35"/>
+      <c r="A400" s="35">
+        <v>45505</v>
+      </c>
       <c r="B400" s="21"/>
       <c r="C400" s="14"/>
       <c r="D400" s="41"/>
@@ -10421,7 +10469,9 @@
       <c r="K400" s="21"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="35"/>
+      <c r="A401" s="35">
+        <v>45536</v>
+      </c>
       <c r="B401" s="21"/>
       <c r="C401" s="14"/>
       <c r="D401" s="41"/>
@@ -10437,7 +10487,9 @@
       <c r="K401" s="21"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="35"/>
+      <c r="A402" s="35">
+        <v>45566</v>
+      </c>
       <c r="B402" s="21"/>
       <c r="C402" s="14"/>
       <c r="D402" s="41"/>
@@ -10453,7 +10505,9 @@
       <c r="K402" s="21"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="35"/>
+      <c r="A403" s="35">
+        <v>45597</v>
+      </c>
       <c r="B403" s="21"/>
       <c r="C403" s="14"/>
       <c r="D403" s="41"/>
@@ -10469,7 +10523,9 @@
       <c r="K403" s="21"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="35"/>
+      <c r="A404" s="35">
+        <v>45627</v>
+      </c>
       <c r="B404" s="21"/>
       <c r="C404" s="14"/>
       <c r="D404" s="41"/>
@@ -10485,7 +10541,9 @@
       <c r="K404" s="21"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="35"/>
+      <c r="A405" s="35">
+        <v>45658</v>
+      </c>
       <c r="B405" s="21"/>
       <c r="C405" s="14"/>
       <c r="D405" s="41"/>
@@ -12133,20 +12191,36 @@
       <c r="K507" s="21"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="36"/>
-      <c r="B508" s="16"/>
-      <c r="C508" s="39"/>
-      <c r="D508" s="42"/>
-      <c r="E508" s="10"/>
-      <c r="F508" s="16"/>
+      <c r="A508" s="35"/>
+      <c r="B508" s="21"/>
+      <c r="C508" s="14"/>
+      <c r="D508" s="41"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="21"/>
       <c r="G508" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H508" s="42"/>
-      <c r="I508" s="10"/>
-      <c r="J508" s="13"/>
-      <c r="K508" s="16"/>
+      <c r="H508" s="41"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="12"/>
+      <c r="K508" s="21"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" s="36"/>
+      <c r="B509" s="16"/>
+      <c r="C509" s="39"/>
+      <c r="D509" s="42"/>
+      <c r="E509" s="10"/>
+      <c r="F509" s="16"/>
+      <c r="G509" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="42"/>
+      <c r="I509" s="10"/>
+      <c r="J509" s="13"/>
+      <c r="K509" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
